--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
   <si>
     <t>1. Xác định các đối tượng và thông tin cần lưu trữ</t>
   </si>
@@ -251,13 +251,229 @@
   </si>
   <si>
     <t>2. Tại sao cần phải xác định mỗi quan hệ giữa những tập thực thể</t>
+  </si>
+  <si>
+    <t>https://app.diagrams.net/#G1GdII-GnQpcK_VWrs24ZC4aoKup_PMFsm</t>
+  </si>
+  <si>
+    <t>SinhVien</t>
+  </si>
+  <si>
+    <t>MaSV</t>
+  </si>
+  <si>
+    <t>TenSV</t>
+  </si>
+  <si>
+    <t>Lop</t>
+  </si>
+  <si>
+    <t>SV1</t>
+  </si>
+  <si>
+    <t>SV2</t>
+  </si>
+  <si>
+    <t>SV3</t>
+  </si>
+  <si>
+    <t>Le Teo</t>
+  </si>
+  <si>
+    <t>Le Na</t>
+  </si>
+  <si>
+    <t>Le A</t>
+  </si>
+  <si>
+    <t>SV4</t>
+  </si>
+  <si>
+    <t>Le Hoa</t>
+  </si>
+  <si>
+    <t>TenLop</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Lop 1</t>
+  </si>
+  <si>
+    <t>CNTT</t>
+  </si>
+  <si>
+    <t>DTVT2</t>
+  </si>
+  <si>
+    <t>Lop 2</t>
+  </si>
+  <si>
+    <t>DTVT</t>
+  </si>
+  <si>
+    <t>Lop 3</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>Toàn vẹn dữ liệu, đảm bảo dữ liệu lưu trữ chính xác</t>
+  </si>
+  <si>
+    <t>Khóa - Đánh index ==&gt; Fast filtering</t>
+  </si>
+  <si>
+    <t>Lưu trữ các bảng dữ liệu một cách chính xác</t>
+  </si>
+  <si>
+    <t>Biết được công thức tạo thêm cột liên kết, bảng mới</t>
+  </si>
+  <si>
+    <t>1 - 1</t>
+  </si>
+  <si>
+    <t>n - n</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Cho phép trùng</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>LH01</t>
+  </si>
+  <si>
+    <t>LH02</t>
+  </si>
+  <si>
+    <t>LH03</t>
+  </si>
+  <si>
+    <t>Item Group 01</t>
+  </si>
+  <si>
+    <t>Item Group 02</t>
+  </si>
+  <si>
+    <t>Item Group 03</t>
+  </si>
+  <si>
+    <t>MH01</t>
+  </si>
+  <si>
+    <t>MH02</t>
+  </si>
+  <si>
+    <t>MH03</t>
+  </si>
+  <si>
+    <t>Item 01</t>
+  </si>
+  <si>
+    <t>Item 02</t>
+  </si>
+  <si>
+    <t>Item 03</t>
+  </si>
+  <si>
+    <t>1 - n</t>
+  </si>
+  <si>
+    <t>DH02</t>
+  </si>
+  <si>
+    <t>DH03</t>
+  </si>
+  <si>
+    <t>06.04.2022</t>
+  </si>
+  <si>
+    <t>08.04.2022</t>
+  </si>
+  <si>
+    <t>10.03.2022</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>MH04</t>
+  </si>
+  <si>
+    <t>ChiTietDonHang</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
+  </si>
+  <si>
+    <t>n-n</t>
+  </si>
+  <si>
+    <t>Tạo column liên kết ở bảng nhiều</t>
+  </si>
+  <si>
+    <t>STCTT</t>
+  </si>
+  <si>
+    <t>HD-X1</t>
+  </si>
+  <si>
+    <t>HD-X2</t>
+  </si>
+  <si>
+    <t>HD-X3</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Khóa - Khóa Chính - Unique</t>
+  </si>
+  <si>
+    <t>Cột liên kết - Khóa ngoại - Non-Unique</t>
+  </si>
+  <si>
+    <t>Ràng buộc - constraints</t>
+  </si>
+  <si>
+    <t>not-null null unique checked</t>
+  </si>
+  <si>
+    <t>Constraint - Unique</t>
+  </si>
+  <si>
+    <t>Tạo column liên kết(unique) ở bất kì bảng nào tùy logic</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Tạo bảng liên kết mới</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +496,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +564,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,10 +616,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,8 +659,69 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -655,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M29"/>
+  <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,240 +1507,785 @@
     <col min="1" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="21" width="10.77734375" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="17" width="14.77734375" customWidth="1"/>
+    <col min="18" max="23" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
-        <v>75</v>
+      <c r="D7" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>148</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
+      <c r="N11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
+      <c r="E12" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="N13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="N14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="3">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="N15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="3">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="N16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="3">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="I20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="4"/>
+      <c r="M20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="R20" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="22"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="J21" s="4"/>
+      <c r="L21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="3">
+        <v>250</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="3">
+        <v>360</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="26">
+        <v>100</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="L27"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="9" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E33" s="10"/>
+      <c r="H33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1" location="G1GdII-GnQpcK_VWrs24ZC4aoKup_PMFsm"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="807" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="Mô hình logic - ERD" sheetId="2" r:id="rId2"/>
+    <sheet name="Mô hình quan hệ" sheetId="3" r:id="rId3"/>
+    <sheet name="Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="197">
   <si>
     <t>1. Xác định các đối tượng và thông tin cần lưu trữ</t>
   </si>
@@ -445,12 +447,6 @@
     <t>N3</t>
   </si>
   <si>
-    <t>Khóa - Khóa Chính - Unique</t>
-  </si>
-  <si>
-    <t>Cột liên kết - Khóa ngoại - Non-Unique</t>
-  </si>
-  <si>
     <t>Ràng buộc - constraints</t>
   </si>
   <si>
@@ -467,13 +463,279 @@
   </si>
   <si>
     <t>Tạo bảng liên kết mới</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khóa Chính - Unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cột liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khóa ngoại - Non-Unique</t>
+    </r>
+  </si>
+  <si>
+    <t>CMND</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cột liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa ngoại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Non-Unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khóa chính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Unique</t>
+    </r>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>MucLuong</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
+    <t>NV02</t>
+  </si>
+  <si>
+    <t>NV03</t>
+  </si>
+  <si>
+    <t>Le Van A</t>
+  </si>
+  <si>
+    <t>Nguyen B</t>
+  </si>
+  <si>
+    <t>Hoang C</t>
+  </si>
+  <si>
+    <t>NV04</t>
+  </si>
+  <si>
+    <t>MaQL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>SELF FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>1. Xác định các bảng dữ liệu - TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Trong mỗi table cần xác định khóa chính - PRIMARY KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Chuyển đổi column liên kết thành khóa ngoại - FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>2. Xác định các thuộc tính và ràng buộc</t>
+  </si>
+  <si>
+    <t>3. Xử lý các mối quan hệ</t>
+  </si>
+  <si>
+    <t>MaKC</t>
+  </si>
+  <si>
+    <t>ChietTietMatHang</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
+  </si>
+  <si>
+    <t>KichCo</t>
+  </si>
+  <si>
+    <t>ThoiGianDatHang</t>
+  </si>
+  <si>
+    <t>KH01</t>
+  </si>
+  <si>
+    <t>Hòa Khánh</t>
+  </si>
+  <si>
+    <t>KH02</t>
+  </si>
+  <si>
+    <t>Hải Châu 1</t>
+  </si>
+  <si>
+    <t>Hòa Hiệp</t>
+  </si>
+  <si>
+    <t>KH03</t>
+  </si>
+  <si>
+    <t>MaTTDH</t>
+  </si>
+  <si>
+    <t>Đang giao</t>
+  </si>
+  <si>
+    <t>Giao hàng thành công</t>
+  </si>
+  <si>
+    <t>Hủy đơn hàng</t>
+  </si>
+  <si>
+    <t>ChiTietTinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>SoDienThoai</t>
+  </si>
+  <si>
+    <t>HD01</t>
+  </si>
+  <si>
+    <t>105 Nam Cao</t>
+  </si>
+  <si>
+    <t>Coop-mart</t>
+  </si>
+  <si>
+    <t>HD02</t>
+  </si>
+  <si>
+    <t>HD03</t>
+  </si>
+  <si>
+    <t>CuaHang</t>
+  </si>
+  <si>
+    <t>MaCH</t>
+  </si>
+  <si>
+    <t>CH01</t>
+  </si>
+  <si>
+    <t>60 Hùng Vương</t>
+  </si>
+  <si>
+    <t>CH02</t>
+  </si>
+  <si>
+    <t>NgayXuatHoaDon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,8 +803,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,8 +877,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -615,12 +907,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,6 +1018,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,7 +1852,9 @@
     <col min="9" max="9" width="17.5546875" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="12" width="13.5546875" customWidth="1"/>
-    <col min="13" max="17" width="14.77734375" customWidth="1"/>
+    <col min="13" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" customWidth="1"/>
     <col min="18" max="23" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1522,7 +1864,7 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1530,7 +1872,7 @@
         <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1543,7 +1885,7 @@
         <v>76</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1551,7 +1893,7 @@
         <v>101</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -1574,7 +1916,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1606,7 +1948,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1641,7 +1983,7 @@
       </c>
       <c r="O11" s="4"/>
       <c r="Q11" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,7 +2202,7 @@
       </c>
       <c r="O20" s="4"/>
       <c r="R20" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,7 +2451,7 @@
         <v>129</v>
       </c>
       <c r="R26" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2202,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
         <v>68</v>
@@ -2218,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H34" s="3" t="s">
         <v>70</v>
       </c>
@@ -2229,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H35" s="3" t="s">
         <v>122</v>
       </c>
@@ -2240,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H36" s="32" t="s">
         <v>123</v>
       </c>
@@ -2250,8 +2592,11 @@
       <c r="J36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H37" s="32" t="s">
         <v>123</v>
       </c>
@@ -2261,22 +2606,34 @@
       <c r="J37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2288,4 +2645,1509 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R52"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" customWidth="1"/>
+    <col min="18" max="23" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="D7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="E8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="N11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="N13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="N14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="3">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="N15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="3">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="N16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="3">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="M20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="R20" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="3">
+        <v>250</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="3">
+        <v>360</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="26">
+        <v>100</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="L27"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="L30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="H33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="35">
+        <v>1200</v>
+      </c>
+      <c r="P33" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" s="35">
+        <v>2400</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N35" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="35">
+        <v>3200</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36" s="35">
+        <v>2200</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1" location="G1GdII-GnQpcK_VWrs24ZC4aoKup_PMFsm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K15:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="10" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="13" max="21" width="18.77734375" customWidth="1"/>
+    <col min="22" max="28" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="35"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="E19" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="41">
+        <v>1</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41">
+        <v>1</v>
+      </c>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="46">
+        <v>44114.649305555555</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="43"/>
+    </row>
+    <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="41">
+        <v>2</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41">
+        <v>2</v>
+      </c>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="N22" s="46">
+        <v>44115.732638888891</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41">
+        <v>3</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="41">
+        <v>4</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="K24" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="K25" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="41">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="G29" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="41">
+        <v>253636215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BA3BE2-B3B6-4E6A-8BC0-07AB82F9D4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B9EC11-F96F-4E67-B666-FBCFF70B9F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="165">
   <si>
     <t>1. Xác định các đối tượng và thông tin cần lưu trữ</t>
   </si>
@@ -477,9 +477,6 @@
     <t>TenKT</t>
   </si>
   <si>
-    <t>GhiChu</t>
-  </si>
-  <si>
     <t>MaMS</t>
   </si>
   <si>
@@ -489,50 +486,44 @@
     <t>TenMau</t>
   </si>
   <si>
-    <t>TenChatLieu</t>
-  </si>
-  <si>
-    <t>ChiTietKichThuoc</t>
-  </si>
-  <si>
-    <t>ChiTietMauSac</t>
-  </si>
-  <si>
     <t>HinhAnh</t>
   </si>
   <si>
-    <t>ChiTietChatLieu</t>
-  </si>
-  <si>
     <t>MaLoaiHinh</t>
   </si>
   <si>
     <t>TenLoaiHinh</t>
   </si>
   <si>
-    <t>MaTT</t>
-  </si>
-  <si>
-    <t>TenTT</t>
-  </si>
-  <si>
     <t>MaTTDH</t>
   </si>
   <si>
-    <t>MaTTDH (constraint)</t>
-  </si>
-  <si>
-    <t>DiaChiCH</t>
-  </si>
-  <si>
-    <t>MaDH (unique)</t>
+    <t>ChiTietMatHang</t>
+  </si>
+  <si>
+    <t>TenCL</t>
+  </si>
+  <si>
+    <t>ThoiGianDatHang</t>
+  </si>
+  <si>
+    <t>ChiTietTinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>CuaHang</t>
+  </si>
+  <si>
+    <t>MaCH</t>
+  </si>
+  <si>
+    <t>ThoiGianTaoHoaDon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +603,20 @@
       <u/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -725,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,18 +849,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1636,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,34 +2443,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3918C-7D5D-45E4-A643-8C85C44C52CF}">
-  <dimension ref="D3:T13"/>
+  <dimension ref="C3:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2465,52 +2480,49 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="46" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="35" t="s">
         <v>56</v>
       </c>
@@ -2521,320 +2533,307 @@
         <v>149</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>152</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>157</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="46" t="s">
+        <v>149</v>
+      </c>
       <c r="D5" s="36" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>2</v>
+      <c r="J5" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>15</v>
+        <v>156</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>11</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="36" t="s">
+      <c r="Q5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="R5" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="46" t="s">
+        <v>151</v>
+      </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="J6" s="36" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="45" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="S6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="36"/>
-    </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="46" t="s">
+        <v>152</v>
+      </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="36" t="s">
-        <v>158</v>
-      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36" t="s">
+      <c r="L7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="39"/>
+      <c r="O7" s="48" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="36" t="s">
+      <c r="Q7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="36"/>
-    </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="36"/>
       <c r="E8" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="J8" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36" t="s">
+      <c r="L8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="36" t="s">
+      <c r="M8" s="36"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="36"/>
-    </row>
-    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="36"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="34" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="36"/>
-    </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="44" t="s">
+        <v>131</v>
+      </c>
       <c r="D10" s="36"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="J10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
-      <c r="M10" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="36"/>
-    </row>
-    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="P10" s="39"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="45" t="s">
+        <v>154</v>
+      </c>
       <c r="D11" s="36"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="34" t="s">
-        <v>160</v>
-      </c>
+      <c r="J11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="41"/>
       <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-    </row>
-    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
       <c r="D12" s="36"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="34" t="s">
+      <c r="J12" s="34" t="s">
         <v>14</v>
       </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-    </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="39"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="36"/>
-      <c r="M13" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="N13" s="34"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="J14" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B9EC11-F96F-4E67-B666-FBCFF70B9F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA0FAE-DA28-469F-8D6A-0F9DC63B0DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10980" yWindow="1335" windowWidth="21600" windowHeight="11385" tabRatio="807" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="Mô hình logic - ERD" sheetId="2" r:id="rId2"/>
-    <sheet name="Database hoàn chỉnh" sheetId="3" r:id="rId3"/>
+    <sheet name="Mô hình quan hệ" sheetId="3" r:id="rId3"/>
+    <sheet name="Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="197">
   <si>
     <t>1. Xác định các đối tượng và thông tin cần lưu trữ</t>
   </si>
@@ -447,12 +448,6 @@
     <t>N3</t>
   </si>
   <si>
-    <t>Khóa - Khóa Chính - Unique</t>
-  </si>
-  <si>
-    <t>Cột liên kết - Khóa ngoại - Non-Unique</t>
-  </si>
-  <si>
     <t>Ràng buộc - constraints</t>
   </si>
   <si>
@@ -471,59 +466,277 @@
     <t>Tạo bảng liên kết mới</t>
   </si>
   <si>
-    <t>MaKT</t>
-  </si>
-  <si>
-    <t>TenKT</t>
-  </si>
-  <si>
-    <t>MaMS</t>
-  </si>
-  <si>
-    <t>MaCL</t>
-  </si>
-  <si>
-    <t>TenMau</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khóa Chính - Unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cột liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khóa ngoại - Non-Unique</t>
+    </r>
+  </si>
+  <si>
+    <t>CMND</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cột liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa ngoại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Non-Unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khóa chính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Unique</t>
+    </r>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>MucLuong</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
+    <t>NV02</t>
+  </si>
+  <si>
+    <t>NV03</t>
+  </si>
+  <si>
+    <t>Le Van A</t>
+  </si>
+  <si>
+    <t>Nguyen B</t>
+  </si>
+  <si>
+    <t>Hoang C</t>
+  </si>
+  <si>
+    <t>NV04</t>
+  </si>
+  <si>
+    <t>MaQL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>SELF FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>1. Xác định các bảng dữ liệu - TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Trong mỗi table cần xác định khóa chính - PRIMARY KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Chuyển đổi column liên kết thành khóa ngoại - FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>2. Xác định các thuộc tính và ràng buộc</t>
+  </si>
+  <si>
+    <t>3. Xử lý các mối quan hệ</t>
+  </si>
+  <si>
+    <t>MaKC</t>
+  </si>
+  <si>
+    <t>ChietTietMatHang</t>
   </si>
   <si>
     <t>HinhAnh</t>
   </si>
   <si>
-    <t>MaLoaiHinh</t>
-  </si>
-  <si>
-    <t>TenLoaiHinh</t>
+    <t>KichCo</t>
+  </si>
+  <si>
+    <t>ThoiGianDatHang</t>
+  </si>
+  <si>
+    <t>KH01</t>
+  </si>
+  <si>
+    <t>Hòa Khánh</t>
+  </si>
+  <si>
+    <t>KH02</t>
+  </si>
+  <si>
+    <t>Hải Châu 1</t>
+  </si>
+  <si>
+    <t>Hòa Hiệp</t>
+  </si>
+  <si>
+    <t>KH03</t>
   </si>
   <si>
     <t>MaTTDH</t>
   </si>
   <si>
-    <t>ChiTietMatHang</t>
-  </si>
-  <si>
-    <t>TenCL</t>
-  </si>
-  <si>
-    <t>ThoiGianDatHang</t>
+    <t>Đang giao</t>
+  </si>
+  <si>
+    <t>Giao hàng thành công</t>
+  </si>
+  <si>
+    <t>Hủy đơn hàng</t>
   </si>
   <si>
     <t>ChiTietTinhTrangDonHang</t>
   </si>
   <si>
+    <t>SoDienThoai</t>
+  </si>
+  <si>
+    <t>HD01</t>
+  </si>
+  <si>
+    <t>105 Nam Cao</t>
+  </si>
+  <si>
+    <t>Coop-mart</t>
+  </si>
+  <si>
+    <t>HD02</t>
+  </si>
+  <si>
+    <t>HD03</t>
+  </si>
+  <si>
     <t>CuaHang</t>
   </si>
   <si>
     <t>MaCH</t>
   </si>
   <si>
-    <t>ThoiGianTaoHoaDon</t>
+    <t>CH01</t>
+  </si>
+  <si>
+    <t>60 Hùng Vương</t>
+  </si>
+  <si>
+    <t>CH02</t>
+  </si>
+  <si>
+    <t>ThoiGianXuatHoaDon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,13 +815,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -616,7 +823,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="5"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,12 +880,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -702,25 +909,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -730,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,46 +1021,44 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,6 +1067,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1153,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1921,9 @@
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="17" width="14.7109375" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1673,7 +1933,7 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1941,7 @@
         <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1694,7 +1954,7 @@
         <v>76</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1702,7 +1962,7 @@
         <v>101</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -1725,7 +1985,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1757,7 +2017,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1792,7 +2052,7 @@
       </c>
       <c r="O11" s="4"/>
       <c r="Q11" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,7 +2271,7 @@
       </c>
       <c r="O20" s="4"/>
       <c r="R20" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,7 +2520,7 @@
         <v>129</v>
       </c>
       <c r="R26" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
         <v>68</v>
@@ -2369,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="3" t="s">
         <v>70</v>
       </c>
@@ -2380,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="3" t="s">
         <v>122</v>
       </c>
@@ -2391,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="32" t="s">
         <v>123</v>
       </c>
@@ -2401,8 +2661,11 @@
       <c r="J36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="32" t="s">
         <v>123</v>
       </c>
@@ -2412,22 +2675,34 @@
       <c r="J37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2442,399 +2717,1502 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3918C-7D5D-45E4-A643-8C85C44C52CF}">
-  <dimension ref="C3:R14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="1" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="E8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="N11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="N13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="N14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="3">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="N15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="3">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="N16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="3">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="M20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="R20" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="3">
+        <v>250</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="3">
+        <v>360</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="26">
+        <v>100</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="L27"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="L30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="H33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="35">
+        <v>1200</v>
+      </c>
+      <c r="P33" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="O34" s="35">
+        <v>2400</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N35" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="35">
+        <v>3200</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36" s="35">
+        <v>2200</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1" location="G1GdII-GnQpcK_VWrs24ZC4aoKup_PMFsm" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B5:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="14" max="21" width="18.7109375" customWidth="1"/>
+    <col min="22" max="28" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="E19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>1</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41">
+        <v>1</v>
+      </c>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="46">
+        <v>44114.649305555555</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="43"/>
+    </row>
+    <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="C22" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41">
         <v>2</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="35" t="s">
+      <c r="L22" s="41"/>
+      <c r="M22" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="N22" s="46">
+        <v>44115.732638888891</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41">
+        <v>3</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41">
         <v>4</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="43" t="s">
+      <c r="C24" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="K24" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="K25" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="36" t="s">
+      <c r="I27" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="36"/>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="36"/>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="36"/>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="36"/>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="39"/>
-      <c r="R10" s="36"/>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="36"/>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="39"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="39"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="J14" s="47"/>
-    </row>
+      <c r="J27" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="41">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="G29" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="41">
+        <v>253636215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -3534,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K15:K18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="512" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="807" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="Mô hình logic - ERD" sheetId="2" r:id="rId2"/>
-    <sheet name="database design " sheetId="3" r:id="rId3"/>
+    <sheet name="Mô hình quan hệ" sheetId="3" r:id="rId3"/>
+    <sheet name="Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="197">
   <si>
     <t>1. Xác định các đối tượng và thông tin cần lưu trữ</t>
   </si>
@@ -446,12 +447,6 @@
     <t>N3</t>
   </si>
   <si>
-    <t>Khóa - Khóa Chính - Unique</t>
-  </si>
-  <si>
-    <t>Cột liên kết - Khóa ngoại - Non-Unique</t>
-  </si>
-  <si>
     <t>Ràng buộc - constraints</t>
   </si>
   <si>
@@ -470,26 +465,277 @@
     <t>Tạo bảng liên kết mới</t>
   </si>
   <si>
-    <t>Hoa Don</t>
-  </si>
-  <si>
-    <t>DiaChiCH</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khóa Chính - Unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cột liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khóa ngoại - Non-Unique</t>
+    </r>
+  </si>
+  <si>
+    <t>CMND</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cột liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa ngoại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Non-Unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khóa chính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Unique</t>
+    </r>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>MucLuong</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
+    <t>NV02</t>
+  </si>
+  <si>
+    <t>NV03</t>
+  </si>
+  <si>
+    <t>Le Van A</t>
+  </si>
+  <si>
+    <t>Nguyen B</t>
+  </si>
+  <si>
+    <t>Hoang C</t>
+  </si>
+  <si>
+    <t>NV04</t>
+  </si>
+  <si>
+    <t>MaQL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>SELF FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>1. Xác định các bảng dữ liệu - TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Trong mỗi table cần xác định khóa chính - PRIMARY KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Chuyển đổi column liên kết thành khóa ngoại - FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>2. Xác định các thuộc tính và ràng buộc</t>
+  </si>
+  <si>
+    <t>3. Xử lý các mối quan hệ</t>
+  </si>
+  <si>
+    <t>MaKC</t>
+  </si>
+  <si>
+    <t>ChietTietMatHang</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
+  </si>
+  <si>
+    <t>KichCo</t>
+  </si>
+  <si>
+    <t>ThoiGianDatHang</t>
+  </si>
+  <si>
+    <t>KH01</t>
+  </si>
+  <si>
+    <t>Hòa Khánh</t>
+  </si>
+  <si>
+    <t>KH02</t>
+  </si>
+  <si>
+    <t>Hải Châu 1</t>
+  </si>
+  <si>
+    <t>Hòa Hiệp</t>
+  </si>
+  <si>
+    <t>KH03</t>
   </si>
   <si>
     <t>MaTTDH</t>
   </si>
   <si>
-    <t>MaTT</t>
-  </si>
-  <si>
-    <t>TênTT</t>
+    <t>Đang giao</t>
+  </si>
+  <si>
+    <t>Giao hàng thành công</t>
+  </si>
+  <si>
+    <t>Hủy đơn hàng</t>
+  </si>
+  <si>
+    <t>ChiTietTinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>SoDienThoai</t>
+  </si>
+  <si>
+    <t>HD01</t>
+  </si>
+  <si>
+    <t>105 Nam Cao</t>
+  </si>
+  <si>
+    <t>Coop-mart</t>
+  </si>
+  <si>
+    <t>HD02</t>
+  </si>
+  <si>
+    <t>HD03</t>
+  </si>
+  <si>
+    <t>CuaHang</t>
+  </si>
+  <si>
+    <t>MaCH</t>
+  </si>
+  <si>
+    <t>CH01</t>
+  </si>
+  <si>
+    <t>60 Hùng Vương</t>
+  </si>
+  <si>
+    <t>CH02</t>
+  </si>
+  <si>
+    <t>NgayXuatHoaDon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,7 +814,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="4"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -576,15 +822,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -641,12 +879,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -673,35 +911,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -709,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -808,55 +1020,43 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,55 +1075,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>820485</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>96282</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314700" y="3371850"/>
-          <a:ext cx="9564435" cy="7392432"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1191,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,7 +1852,9 @@
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="17" width="14.7109375" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,7 +1864,7 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,7 +1872,7 @@
         <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1732,7 +1885,7 @@
         <v>76</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,7 +1893,7 @@
         <v>101</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -1763,7 +1916,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1795,7 +1948,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1830,7 +1983,7 @@
       </c>
       <c r="O11" s="4"/>
       <c r="Q11" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,7 +2202,7 @@
       </c>
       <c r="O20" s="4"/>
       <c r="R20" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2298,7 +2451,7 @@
         <v>129</v>
       </c>
       <c r="R26" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
         <v>68</v>
@@ -2407,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="3" t="s">
         <v>70</v>
       </c>
@@ -2418,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="3" t="s">
         <v>122</v>
       </c>
@@ -2429,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="32" t="s">
         <v>123</v>
       </c>
@@ -2439,8 +2592,11 @@
       <c r="J36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="32" t="s">
         <v>123</v>
       </c>
@@ -2450,22 +2606,34 @@
       <c r="J37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2481,265 +2649,1505 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K15"/>
+  <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="44" t="s">
+    <row r="1" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="34" t="s">
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
+    </row>
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>25</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="E8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>18</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
-        <v>2</v>
-      </c>
+      <c r="J9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
+      <c r="J10" s="4"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="N11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>151</v>
-      </c>
-    </row>
+      <c r="H13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="N13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="N14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="3">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="N15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="3">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="N16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="3">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="M20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="R20" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="3">
+        <v>250</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="3">
+        <v>360</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="26">
+        <v>100</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="L27"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="L30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="H33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="35">
+        <v>1200</v>
+      </c>
+      <c r="P33" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" s="35">
+        <v>2400</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N35" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="35">
+        <v>3200</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36" s="35">
+        <v>2200</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1" location="G1GdII-GnQpcK_VWrs24ZC4aoKup_PMFsm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="21" width="18.7109375" customWidth="1"/>
+    <col min="22" max="28" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="E19" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>1</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41">
+        <v>1</v>
+      </c>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="46">
+        <v>44114.649305555555</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="43"/>
+    </row>
+    <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41">
+        <v>2</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41">
+        <v>2</v>
+      </c>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="N22" s="46">
+        <v>44115.732638888891</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41">
+        <v>3</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41">
+        <v>4</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="K24" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="K25" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="41">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="G29" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="41">
+        <v>253636215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>